--- a/WYKRESY_BRAMKI.xlsx
+++ b/WYKRESY_BRAMKI.xlsx
@@ -1,152 +1,462 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Arkusz1" sheetId="1" r:id="rId3"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Bramka</t>
+    <t xml:space="preserve">Bramka</t>
   </si>
   <si>
-    <t>OR</t>
+    <t xml:space="preserve">OR</t>
   </si>
   <si>
-    <t>NOT</t>
+    <t xml:space="preserve">NOT</t>
   </si>
   <si>
-    <t>N</t>
+    <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t>AND</t>
+    <t xml:space="preserve">AND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+  <cellXfs count="2">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB7B7B7"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366CC"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Zależność szybkości nauki neuronu, od wartości parametru nauki N dla bramki AND</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
     <c:plotArea>
-      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="3366CC"/>
+              <a:srgbClr val="3366cc"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Arkusz1!$A$5:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0,1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0,2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0,3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0,4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0,6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0,7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0,8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0,9</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Arkusz1!$B$5:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.19049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.28152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.36989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.77645</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.12549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.58254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.64602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.56034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.33896</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="314505530"/>
-        <c:axId val="1663723210"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="20198113"/>
+        <c:axId val="44927677"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314505530"/>
+        <c:axId val="20198113"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1663723210"/>
+        <c:crossAx val="44927677"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1663723210"/>
+        <c:axId val="44927677"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4.0"/>
-          <c:min val="0.0"/>
+          <c:max val="4"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -154,108 +464,323 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
+                <a:srgbClr val="b7b7b7"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47625">
+          <a:ln w="47520">
             <a:noFill/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314505530"/>
+        <c:crossAx val="20198113"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Zależność szybkości nauki neuronu, od wartości parametru nauki N dla bramki OR</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
     <c:plotArea>
-      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="3366CC"/>
+              <a:srgbClr val="3366cc"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Arkusz1!$A$18:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0,1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0,2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0,3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0,4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0,6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0,7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0,8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0,9</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Arkusz1!$B$18:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.99785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.99825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.99801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.99812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.99809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.99804</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.99815</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.99811</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.99818</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="898642097"/>
-        <c:axId val="1221765008"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="61861487"/>
+        <c:axId val="8076321"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="898642097"/>
+        <c:axId val="61861487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1221765008"/>
+        <c:crossAx val="8076321"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1221765008"/>
+        <c:axId val="8076321"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5.0"/>
-          <c:min val="0.0"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -263,108 +788,323 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
+                <a:srgbClr val="b7b7b7"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47625">
+          <a:ln w="47520">
             <a:noFill/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="898642097"/>
+        <c:crossAx val="61861487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Zależność szybkości nauki neuronu, od wartości parametru nauki N dla bramki NOT</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
     <c:plotArea>
-      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="3366CC"/>
+              <a:srgbClr val="3366cc"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Arkusz1!$A$28:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0,1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0,2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0,3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0,4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0,6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0,7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0,8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0,9</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Arkusz1!$B$28:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.00118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.00102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.00103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.00092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.00097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.00105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.00111</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="8929181"/>
-        <c:axId val="868476720"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="94611871"/>
+        <c:axId val="89744441"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="8929181"/>
+        <c:axId val="94611871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="868476720"/>
+        <c:crossAx val="89744441"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="868476720"/>
+        <c:axId val="89744441"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3.0"/>
-          <c:min val="0.0"/>
+          <c:max val="3"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -372,144 +1112,186 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
+                <a:srgbClr val="b7b7b7"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47625">
+          <a:ln w="47520">
             <a:noFill/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8929181"/>
+        <c:crossAx val="94611871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
-  <xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>390600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>247320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Wykres"/>
+        <xdr:cNvPr id="0" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4390920" y="181080"/>
+        <a:ext cx="5857560" cy="3476160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>348480</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290880</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Wykres"/>
+        <xdr:cNvPr id="1" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4348800" y="4019760"/>
+        <a:ext cx="5943240" cy="3533400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>290160</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>232560</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Wykres"/>
+        <xdr:cNvPr id="2" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4290480" y="8229600"/>
+        <a:ext cx="5943240" cy="3533760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.1734693877551"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,299 +1302,306 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="n">
         <v>3.19049</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="n">
         <v>2.99785</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="n">
         <v>2.00118</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="n">
         <v>2.28152</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="n">
         <v>2.99825</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="n">
         <v>2.00102</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="n">
         <v>2.36989</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="n">
         <v>2.99801</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="n">
         <v>2.0012</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="n">
         <v>2.77645</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="n">
         <v>2.99812</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="n">
         <v>2.00103</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="1" t="n">
         <v>3.12549</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="n">
         <v>2.99809</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="n">
         <v>2.00092</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1" t="n">
         <v>3.58254</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="n">
         <v>2.99804</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="1" t="n">
         <v>2.0012</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="1" t="n">
         <v>3.64602</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="n">
         <v>2.99815</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="1" t="n">
         <v>2.00097</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="1" t="n">
         <v>3.56034</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" t="n">
         <v>2.99811</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="1" t="n">
         <v>2.00105</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1" t="n">
         <v>3.33896</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="1" t="n">
         <v>2.99818</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="1" t="n">
         <v>2.00111</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="1" t="n">
         <v>2.99785</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="1" t="n">
         <v>2.99825</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="1" t="n">
         <v>2.99801</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="1" t="n">
         <v>2.99812</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="1" t="n">
         <v>2.99809</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="1" t="n">
         <v>2.99804</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="1" t="n">
         <v>2.99815</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="1" t="n">
         <v>2.99811</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="1" t="n">
         <v>2.99818</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1" t="n">
         <v>2.00118</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1" t="n">
         <v>2.00102</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="1" t="n">
         <v>2.0012</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="1" t="n">
         <v>2.00103</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="1" t="n">
         <v>2.00092</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="1" t="n">
         <v>2.0012</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="1" t="n">
         <v>2.00097</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="1" t="n">
         <v>2.00105</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="1" t="n">
         <v>2.00111</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>